--- a/SchedulingData/static8/pso/scheduling1_17.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_17.xlsx
@@ -466,74 +466,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>58.1</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>26.36</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>77.09999999999999</v>
+        <v>140.76</v>
       </c>
       <c r="E3" t="n">
-        <v>26.44</v>
+        <v>20.724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>75.7</v>
+        <v>53.9</v>
       </c>
       <c r="E4" t="n">
-        <v>25.58</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>77.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>131.52</v>
+        <v>77</v>
       </c>
       <c r="E5" t="n">
-        <v>23.128</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D6" t="n">
-        <v>57.6</v>
+        <v>135.94</v>
       </c>
       <c r="E6" t="n">
-        <v>25.92</v>
+        <v>20.696</v>
       </c>
     </row>
     <row r="7">
@@ -561,74 +561,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58.1</v>
+        <v>140.76</v>
       </c>
       <c r="D7" t="n">
-        <v>109.92</v>
+        <v>192.66</v>
       </c>
       <c r="E7" t="n">
-        <v>22.808</v>
+        <v>17.164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>53.9</v>
       </c>
       <c r="D8" t="n">
-        <v>69.40000000000001</v>
+        <v>125.6</v>
       </c>
       <c r="E8" t="n">
-        <v>26.7</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>75.7</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>132.38</v>
+        <v>73.08</v>
       </c>
       <c r="E9" t="n">
-        <v>21.532</v>
+        <v>25.352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>125.6</v>
       </c>
       <c r="D10" t="n">
-        <v>65.92</v>
+        <v>174.92</v>
       </c>
       <c r="E10" t="n">
-        <v>26.568</v>
+        <v>18.408</v>
       </c>
     </row>
     <row r="11">
@@ -637,55 +637,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>109.92</v>
+        <v>192.66</v>
       </c>
       <c r="D11" t="n">
-        <v>155.54</v>
+        <v>266.74</v>
       </c>
       <c r="E11" t="n">
-        <v>19.376</v>
+        <v>13.356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65.92</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.02</v>
+        <v>86.78</v>
       </c>
       <c r="E12" t="n">
-        <v>22.368</v>
+        <v>25.952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>155.54</v>
+        <v>73.08</v>
       </c>
       <c r="D13" t="n">
-        <v>215.68</v>
+        <v>134.42</v>
       </c>
       <c r="E13" t="n">
-        <v>16.472</v>
+        <v>21.348</v>
       </c>
     </row>
     <row r="14">
@@ -698,127 +698,127 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>132.38</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>209.7</v>
+        <v>48.42</v>
       </c>
       <c r="E14" t="n">
-        <v>17.88</v>
+        <v>26.348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>159.02</v>
+        <v>135.94</v>
       </c>
       <c r="D15" t="n">
-        <v>200.24</v>
+        <v>196.54</v>
       </c>
       <c r="E15" t="n">
-        <v>19.376</v>
+        <v>16.276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>57.6</v>
+        <v>266.74</v>
       </c>
       <c r="D16" t="n">
-        <v>108.94</v>
+        <v>353.94</v>
       </c>
       <c r="E16" t="n">
-        <v>21.916</v>
+        <v>7.756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>69.40000000000001</v>
+        <v>134.42</v>
       </c>
       <c r="D17" t="n">
-        <v>125.5</v>
+        <v>204.46</v>
       </c>
       <c r="E17" t="n">
-        <v>23.22</v>
+        <v>17.484</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>209.7</v>
+        <v>204.46</v>
       </c>
       <c r="D18" t="n">
-        <v>261.2</v>
+        <v>281</v>
       </c>
       <c r="E18" t="n">
-        <v>14.36</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>131.52</v>
+        <v>353.94</v>
       </c>
       <c r="D19" t="n">
-        <v>171.14</v>
+        <v>415.04</v>
       </c>
       <c r="E19" t="n">
-        <v>20.296</v>
+        <v>2.776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>125.5</v>
+        <v>48.42</v>
       </c>
       <c r="D20" t="n">
-        <v>225.72</v>
+        <v>88.84</v>
       </c>
       <c r="E20" t="n">
-        <v>19.268</v>
+        <v>23.436</v>
       </c>
     </row>
     <row r="21">
@@ -827,36 +827,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>171.14</v>
+        <v>174.92</v>
       </c>
       <c r="D21" t="n">
-        <v>240.34</v>
+        <v>220.48</v>
       </c>
       <c r="E21" t="n">
-        <v>16.496</v>
+        <v>14.492</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>225.72</v>
+        <v>281</v>
       </c>
       <c r="D22" t="n">
-        <v>280.1</v>
+        <v>332.34</v>
       </c>
       <c r="E22" t="n">
-        <v>15.46</v>
+        <v>8.436</v>
       </c>
     </row>
     <row r="23">
@@ -865,36 +865,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>240.34</v>
+        <v>220.48</v>
       </c>
       <c r="D23" t="n">
-        <v>298.64</v>
+        <v>278.78</v>
       </c>
       <c r="E23" t="n">
-        <v>12.296</v>
+        <v>11.772</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>108.94</v>
+        <v>415.04</v>
       </c>
       <c r="D24" t="n">
-        <v>152.34</v>
+        <v>496.09</v>
       </c>
       <c r="E24" t="n">
-        <v>19.196</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -903,136 +903,136 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>215.68</v>
+        <v>496.09</v>
       </c>
       <c r="D25" t="n">
-        <v>267.98</v>
+        <v>552.11</v>
       </c>
       <c r="E25" t="n">
-        <v>12.872</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>261.2</v>
+        <v>552.11</v>
       </c>
       <c r="D26" t="n">
-        <v>331.56</v>
+        <v>598.91</v>
       </c>
       <c r="E26" t="n">
-        <v>10.444</v>
+        <v>24.008</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>280.1</v>
+        <v>88.84</v>
       </c>
       <c r="D27" t="n">
-        <v>334.48</v>
+        <v>129.68</v>
       </c>
       <c r="E27" t="n">
-        <v>12.652</v>
+        <v>20.972</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>152.34</v>
+        <v>129.68</v>
       </c>
       <c r="D28" t="n">
-        <v>215.08</v>
+        <v>190</v>
       </c>
       <c r="E28" t="n">
-        <v>15.052</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>334.48</v>
+        <v>332.34</v>
       </c>
       <c r="D29" t="n">
-        <v>389.98</v>
+        <v>372.06</v>
       </c>
       <c r="E29" t="n">
-        <v>8.731999999999999</v>
+        <v>5.604</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>331.56</v>
+        <v>86.78</v>
       </c>
       <c r="D30" t="n">
-        <v>407.4</v>
+        <v>159.18</v>
       </c>
       <c r="E30" t="n">
-        <v>7.48</v>
+        <v>22.312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>389.98</v>
+        <v>278.78</v>
       </c>
       <c r="D31" t="n">
-        <v>473.84</v>
+        <v>343.66</v>
       </c>
       <c r="E31" t="n">
-        <v>4.936</v>
+        <v>7.404</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1040,70 +1040,70 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>298.64</v>
+        <v>190</v>
       </c>
       <c r="D32" t="n">
-        <v>359.1</v>
+        <v>240.66</v>
       </c>
       <c r="E32" t="n">
-        <v>8.359999999999999</v>
+        <v>13.604</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>200.24</v>
+        <v>159.18</v>
       </c>
       <c r="D33" t="n">
-        <v>290.08</v>
+        <v>218.08</v>
       </c>
       <c r="E33" t="n">
-        <v>16.472</v>
+        <v>18.532</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>267.98</v>
+        <v>196.54</v>
       </c>
       <c r="D34" t="n">
-        <v>339.38</v>
+        <v>259.64</v>
       </c>
       <c r="E34" t="n">
-        <v>10.312</v>
+        <v>12.076</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>339.38</v>
+        <v>343.66</v>
       </c>
       <c r="D35" t="n">
-        <v>401.12</v>
+        <v>408.06</v>
       </c>
       <c r="E35" t="n">
-        <v>5.268</v>
+        <v>3.564</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>407.4</v>
+        <v>240.66</v>
       </c>
       <c r="D36" t="n">
-        <v>450.64</v>
+        <v>311.08</v>
       </c>
       <c r="E36" t="n">
-        <v>4.776</v>
+        <v>9.651999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>215.08</v>
+        <v>218.08</v>
       </c>
       <c r="D37" t="n">
-        <v>281.88</v>
+        <v>268.7</v>
       </c>
       <c r="E37" t="n">
-        <v>10.972</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="38">
@@ -1150,128 +1150,128 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>281.88</v>
+        <v>259.64</v>
       </c>
       <c r="D38" t="n">
-        <v>334.06</v>
+        <v>328.64</v>
       </c>
       <c r="E38" t="n">
-        <v>6.884</v>
+        <v>8.776</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>450.64</v>
+        <v>268.7</v>
       </c>
       <c r="D39" t="n">
-        <v>522.08</v>
+        <v>355.58</v>
       </c>
       <c r="E39" t="n">
-        <v>1.752</v>
+        <v>11.012</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>522.08</v>
+        <v>372.06</v>
       </c>
       <c r="D40" t="n">
-        <v>624.98</v>
+        <v>438.46</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>1.584</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>359.1</v>
+        <v>438.46</v>
       </c>
       <c r="D41" t="n">
-        <v>418.34</v>
+        <v>526.79</v>
       </c>
       <c r="E41" t="n">
-        <v>4.576</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>401.12</v>
+        <v>311.08</v>
       </c>
       <c r="D42" t="n">
-        <v>462.42</v>
+        <v>367.4</v>
       </c>
       <c r="E42" t="n">
-        <v>1.248</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>462.42</v>
+        <v>355.58</v>
       </c>
       <c r="D43" t="n">
-        <v>551.42</v>
+        <v>430.18</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>8.172000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>473.84</v>
+        <v>408.06</v>
       </c>
       <c r="D44" t="n">
-        <v>560.37</v>
+        <v>507.23</v>
       </c>
       <c r="E44" t="n">
         <v>30</v>
@@ -1279,21 +1279,21 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>560.37</v>
+        <v>507.23</v>
       </c>
       <c r="D45" t="n">
-        <v>636.77</v>
+        <v>577.73</v>
       </c>
       <c r="E45" t="n">
-        <v>25.02</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="46">
@@ -1302,150 +1302,150 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>551.42</v>
+        <v>598.91</v>
       </c>
       <c r="D46" t="n">
-        <v>625.8</v>
+        <v>644.51</v>
       </c>
       <c r="E46" t="n">
-        <v>27.192</v>
+        <v>20.088</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>418.34</v>
+        <v>526.79</v>
       </c>
       <c r="D47" t="n">
-        <v>484.78</v>
+        <v>601.15</v>
       </c>
       <c r="E47" t="n">
-        <v>0.572</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>484.78</v>
+        <v>430.18</v>
       </c>
       <c r="D48" t="n">
-        <v>585.14</v>
+        <v>529.88</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>4.272</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>625.8</v>
+        <v>328.64</v>
       </c>
       <c r="D49" t="n">
-        <v>680.6</v>
+        <v>389.84</v>
       </c>
       <c r="E49" t="n">
-        <v>24.352</v>
+        <v>5.256</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>290.08</v>
+        <v>367.4</v>
       </c>
       <c r="D50" t="n">
-        <v>386.28</v>
+        <v>473.9</v>
       </c>
       <c r="E50" t="n">
-        <v>10.952</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>585.14</v>
+        <v>473.9</v>
       </c>
       <c r="D51" t="n">
-        <v>631.0599999999999</v>
+        <v>575.04</v>
       </c>
       <c r="E51" t="n">
-        <v>27.088</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>680.6</v>
+        <v>575.04</v>
       </c>
       <c r="D52" t="n">
-        <v>782.1799999999999</v>
+        <v>649.1</v>
       </c>
       <c r="E52" t="n">
-        <v>20.764</v>
+        <v>26.724</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>334.06</v>
+        <v>649.1</v>
       </c>
       <c r="D53" t="n">
-        <v>388.66</v>
+        <v>692.88</v>
       </c>
       <c r="E53" t="n">
-        <v>3.044</v>
+        <v>23.476</v>
       </c>
     </row>
     <row r="54">
@@ -1454,212 +1454,212 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>636.77</v>
+        <v>529.88</v>
       </c>
       <c r="D54" t="n">
-        <v>685.11</v>
+        <v>564.36</v>
       </c>
       <c r="E54" t="n">
-        <v>22.316</v>
+        <v>1.464</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>624.98</v>
+        <v>564.36</v>
       </c>
       <c r="D55" t="n">
-        <v>702.6799999999999</v>
+        <v>628.4299999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>24.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>386.28</v>
+        <v>628.4299999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>449.94</v>
+        <v>702.8099999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>7.676</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>388.66</v>
+        <v>692.88</v>
       </c>
       <c r="D57" t="n">
-        <v>488.87</v>
+        <v>741.12</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>20.772</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>488.87</v>
+        <v>741.12</v>
       </c>
       <c r="D58" t="n">
-        <v>549.27</v>
+        <v>812.5599999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>24.66</v>
+        <v>17.748</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>782.1799999999999</v>
+        <v>601.15</v>
       </c>
       <c r="D59" t="n">
-        <v>833.22</v>
+        <v>670.05</v>
       </c>
       <c r="E59" t="n">
-        <v>18.3</v>
+        <v>22.404</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>685.11</v>
+        <v>577.73</v>
       </c>
       <c r="D60" t="n">
-        <v>749.77</v>
+        <v>650.47</v>
       </c>
       <c r="E60" t="n">
-        <v>19.46</v>
+        <v>21.476</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>449.94</v>
+        <v>644.51</v>
       </c>
       <c r="D61" t="n">
-        <v>543.4400000000001</v>
+        <v>716.13</v>
       </c>
       <c r="E61" t="n">
-        <v>3.896</v>
+        <v>16.536</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>702.6799999999999</v>
+        <v>702.8099999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>762.78</v>
+        <v>783.35</v>
       </c>
       <c r="E62" t="n">
-        <v>20.5</v>
+        <v>24.228</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>549.27</v>
+        <v>650.47</v>
       </c>
       <c r="D63" t="n">
-        <v>621.75</v>
+        <v>730.51</v>
       </c>
       <c r="E63" t="n">
-        <v>20.012</v>
+        <v>18.572</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>543.4400000000001</v>
+        <v>389.84</v>
       </c>
       <c r="D64" t="n">
-        <v>637.98</v>
+        <v>451.92</v>
       </c>
       <c r="E64" t="n">
-        <v>0.032</v>
+        <v>1.668</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1667,10 +1667,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>637.98</v>
+        <v>451.92</v>
       </c>
       <c r="D65" t="n">
-        <v>734.42</v>
+        <v>520.58</v>
       </c>
       <c r="E65" t="n">
         <v>30</v>
@@ -1678,78 +1678,78 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>749.77</v>
+        <v>520.58</v>
       </c>
       <c r="D66" t="n">
-        <v>816.87</v>
+        <v>606.6799999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>15.38</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>734.42</v>
+        <v>606.6799999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>785.64</v>
+        <v>678.38</v>
       </c>
       <c r="E67" t="n">
-        <v>26.568</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>762.78</v>
+        <v>670.05</v>
       </c>
       <c r="D68" t="n">
-        <v>836.0599999999999</v>
+        <v>718.29</v>
       </c>
       <c r="E68" t="n">
-        <v>17.252</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>631.0599999999999</v>
+        <v>783.35</v>
       </c>
       <c r="D69" t="n">
-        <v>701.04</v>
+        <v>855.25</v>
       </c>
       <c r="E69" t="n">
-        <v>22.72</v>
+        <v>20.628</v>
       </c>
     </row>
     <row r="70">
@@ -1758,36 +1758,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>833.22</v>
+        <v>716.13</v>
       </c>
       <c r="D70" t="n">
-        <v>898.12</v>
+        <v>770.89</v>
       </c>
       <c r="E70" t="n">
-        <v>13.92</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>621.75</v>
+        <v>718.29</v>
       </c>
       <c r="D71" t="n">
-        <v>672.51</v>
+        <v>768.4299999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>16.076</v>
+        <v>16.796</v>
       </c>
     </row>
   </sheetData>
